--- a/python/data/metadata.xlsx
+++ b/python/data/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimuc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project_WWTP\python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1231442-1EA9-40C8-837D-CDC8F05C02DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168BA766-AD1B-4648-88F5-ADC429911E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="25760" windowHeight="15440" xr2:uid="{ECEB4B2E-B7AF-4843-8937-97A83950E7FA}"/>
+    <workbookView xWindow="3150" yWindow="2475" windowWidth="16995" windowHeight="11385" xr2:uid="{ECEB4B2E-B7AF-4843-8937-97A83950E7FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,16 +27,17 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>SYS_TIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +117,89 @@
   </si>
   <si>
     <t>기온</t>
+  </si>
+  <si>
+    <t>AWS_{관측소 번호}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>RN-15m</t>
+  </si>
+  <si>
+    <t>RN-60m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RN-12H</t>
+  </si>
+  <si>
+    <t>RN-DAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>이슬점온도 (C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1분 평균 상대습도 (%) </t>
+  </si>
+  <si>
+    <t>일 누적 강수량 (mm)</t>
+  </si>
+  <si>
+    <t>12시간 누적 강수량 (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60분 누적 강수량 (mm) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15분 누적 강수량 (mm) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1분 평균 기온 (C) </t>
+  </si>
+  <si>
+    <t>flow_TankA</t>
+  </si>
+  <si>
+    <t>flow_TankB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_TankA</t>
+  </si>
+  <si>
+    <t>level_TankB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총유기탄소</t>
+  </si>
+  <si>
+    <t>수소이온농도</t>
+  </si>
+  <si>
+    <t>부유물질</t>
+  </si>
+  <si>
+    <t>부하량, 유량×농도</t>
+  </si>
+  <si>
+    <t>총 질소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -499,22 +583,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB7BC11-4F58-4C99-99A3-FE276F55950D}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -524,8 +610,11 @@
       <c r="G1" t="s">
         <v>18</v>
       </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -544,69 +633,142 @@
       <c r="H2" t="s">
         <v>1</v>
       </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
       </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
       </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>